--- a/Insurance Companies.xlsx
+++ b/Insurance Companies.xlsx
@@ -1,19 +1,20 @@
 
 <file path=xl/workbook.xml><?xml version="1.0" encoding="utf-8"?>
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x15="http://schemas.microsoft.com/office/spreadsheetml/2010/11/main" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr6="http://schemas.microsoft.com/office/spreadsheetml/2016/revision6" xmlns:xr10="http://schemas.microsoft.com/office/spreadsheetml/2016/revision10" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" mc:Ignorable="x15 xr xr6 xr10 xr2">
-  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="27928"/>
+  <fileVersion appName="xl" lastEdited="7" lowestEdited="7" rupBuild="28227"/>
   <workbookPr defaultThemeVersion="202300"/>
   <mc:AlternateContent xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006">
     <mc:Choice Requires="x15">
-      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Desktop\"/>
+      <x15ac:absPath xmlns:x15ac="http://schemas.microsoft.com/office/spreadsheetml/2010/11/ac" url="C:\Users\User\Models\"/>
     </mc:Choice>
   </mc:AlternateContent>
-  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{A43F3282-7091-40FB-9F12-993B5DE28F06}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
+  <xr:revisionPtr revIDLastSave="0" documentId="13_ncr:1_{63B4615C-23D3-446D-9015-44155A6D366B}" xr6:coauthVersionLast="47" xr6:coauthVersionMax="47" xr10:uidLastSave="{00000000-0000-0000-0000-000000000000}"/>
   <bookViews>
-    <workbookView xWindow="-120" yWindow="-120" windowWidth="29040" windowHeight="15840" xr2:uid="{40DB44DB-F600-49E0-A675-49B76DFC61A2}"/>
+    <workbookView xWindow="14400" yWindow="0" windowWidth="14400" windowHeight="15600" activeTab="1" xr2:uid="{40DB44DB-F600-49E0-A675-49B76DFC61A2}"/>
   </bookViews>
   <sheets>
     <sheet name="Sheet1" sheetId="1" r:id="rId1"/>
+    <sheet name="Sheet2" sheetId="2" r:id="rId2"/>
   </sheets>
   <calcPr calcId="191029"/>
   <extLst>
@@ -36,7 +37,7 @@
 </file>
 
 <file path=xl/sharedStrings.xml><?xml version="1.0" encoding="utf-8"?>
-<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="27" uniqueCount="27">
+<sst xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" count="39" uniqueCount="38">
   <si>
     <t>US Insurers that have done well</t>
   </si>
@@ -117,6 +118,39 @@
   </si>
   <si>
     <t>The following presents a discussion of accounting policies and estimates relating to reserves for losses and loss expenses, assumed premiums and other-than-temporary impairments of investments. Management believes these policies and estimates are the most critical to its operations and require the most difficult, subjective and complex judgments.</t>
+  </si>
+  <si>
+    <t>Good Insurers</t>
+  </si>
+  <si>
+    <t>Berkshire</t>
+  </si>
+  <si>
+    <t>Chubb</t>
+  </si>
+  <si>
+    <t>Alleghany</t>
+  </si>
+  <si>
+    <t>Insurance Brokers</t>
+  </si>
+  <si>
+    <t>Aon</t>
+  </si>
+  <si>
+    <t>Willis</t>
+  </si>
+  <si>
+    <t>Mars</t>
+  </si>
+  <si>
+    <t>Mercer</t>
+  </si>
+  <si>
+    <t>Towers Watson</t>
+  </si>
+  <si>
+    <t>Human Resources Consulting</t>
   </si>
 </sst>
 </file>
@@ -500,7 +534,7 @@
 <worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{42F6BCA9-C4E3-4C09-AE27-8E264EFBA20B}">
   <dimension ref="B2:J27"/>
   <sheetViews>
-    <sheetView tabSelected="1" topLeftCell="A7" workbookViewId="0">
+    <sheetView workbookViewId="0">
       <selection activeCell="S27" sqref="S27"/>
     </sheetView>
   </sheetViews>
@@ -637,4 +671,79 @@
   </sheetData>
   <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
 </worksheet>
+</file>
+
+<file path=xl/worksheets/sheet2.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main" xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" xmlns:mc="http://schemas.openxmlformats.org/markup-compatibility/2006" xmlns:x14ac="http://schemas.microsoft.com/office/spreadsheetml/2009/9/ac" xmlns:xr="http://schemas.microsoft.com/office/spreadsheetml/2014/revision" xmlns:xr2="http://schemas.microsoft.com/office/spreadsheetml/2015/revision2" xmlns:xr3="http://schemas.microsoft.com/office/spreadsheetml/2016/revision3" mc:Ignorable="x14ac xr xr2 xr3" xr:uid="{0718F673-3902-4E03-8B40-91448064788C}">
+  <dimension ref="B2:B16"/>
+  <sheetViews>
+    <sheetView tabSelected="1" workbookViewId="0">
+      <selection activeCell="G15" sqref="G15"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr defaultRowHeight="14.25" x14ac:dyDescent="0.2"/>
+  <sheetData>
+    <row r="2" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B2" s="1" t="s">
+        <v>27</v>
+      </c>
+    </row>
+    <row r="3" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B3" t="s">
+        <v>28</v>
+      </c>
+    </row>
+    <row r="4" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B4" t="s">
+        <v>29</v>
+      </c>
+    </row>
+    <row r="5" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B5" t="s">
+        <v>2</v>
+      </c>
+    </row>
+    <row r="6" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B6" t="s">
+        <v>30</v>
+      </c>
+    </row>
+    <row r="8" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B8" s="1" t="s">
+        <v>31</v>
+      </c>
+    </row>
+    <row r="9" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B9" t="s">
+        <v>32</v>
+      </c>
+    </row>
+    <row r="10" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B10" t="s">
+        <v>33</v>
+      </c>
+    </row>
+    <row r="11" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B11" t="s">
+        <v>34</v>
+      </c>
+    </row>
+    <row r="14" spans="2:2" ht="15" x14ac:dyDescent="0.25">
+      <c r="B14" s="1" t="s">
+        <v>37</v>
+      </c>
+    </row>
+    <row r="15" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B15" t="s">
+        <v>35</v>
+      </c>
+    </row>
+    <row r="16" spans="2:2" x14ac:dyDescent="0.2">
+      <c r="B16" t="s">
+        <v>36</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins left="0.7" right="0.7" top="0.75" bottom="0.75" header="0.3" footer="0.3"/>
+</worksheet>
 </file>